--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.631180.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.631180.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51D427C7-072C-4655-B9D1-E447DDACDA10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B502F3AA-56E9-44F5-8BC6-776ABA187B39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T060538.485" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T061537.798" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="73">
   <si>
     <t>Do Ty</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>BARANG UMUM U/MD &amp;PURCH</t>
+  </si>
+  <si>
+    <t>BARANG UMUM U/IT</t>
+  </si>
+  <si>
+    <t>PERBAIKAN ON HAND/KONVERSI</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -716,9 +722,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1074,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ13"/>
+  <dimension ref="A1:AZ16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2167,50 +2174,398 @@
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>24001042</v>
+      </c>
+      <c r="D10">
+        <v>1201</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45337</v>
+      </c>
       <c r="F10" t="s">
         <v>67</v>
       </c>
       <c r="G10">
-        <v>4.83</v>
+        <v>0.19</v>
       </c>
       <c r="H10">
-        <v>4.83</v>
+        <v>0.19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" t="s">
+        <v>60</v>
+      </c>
+      <c r="W10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10">
+        <v>2104427</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>56</v>
       </c>
       <c r="AG10">
-        <v>27.93</v>
+        <v>1</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>45337</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP10">
+        <v>1201</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR10">
+        <v>79248</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY10">
+        <v>631180</v>
+      </c>
+      <c r="AZ10">
+        <v>1201.6311800000001</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11">
+        <v>24001042</v>
+      </c>
+      <c r="D11">
+        <v>1201</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45337</v>
+      </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11">
-        <v>4.83</v>
+        <v>0.46</v>
       </c>
       <c r="H11">
-        <v>4.83</v>
+        <v>0.46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11">
+        <v>2104427</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11">
+        <v>4</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>56</v>
       </c>
       <c r="AG11">
-        <v>27.93</v>
+        <v>1</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>45337</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP11">
+        <v>1201</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR11">
+        <v>79280</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY11">
+        <v>631180</v>
+      </c>
+      <c r="AZ11">
+        <v>1201.6311800000001</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>24001044</v>
+      </c>
+      <c r="D12">
+        <v>1201</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45345</v>
+      </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12">
-        <v>4.83</v>
+        <v>507.75</v>
       </c>
       <c r="H12">
-        <v>4.83</v>
-      </c>
-      <c r="AG12">
-        <v>27.93</v>
+        <v>507.75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" t="s">
+        <v>57</v>
+      </c>
+      <c r="T12" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X12">
+        <v>2105373</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>2498.75</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP12">
+        <v>1201</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR12">
+        <v>79293</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY12">
+        <v>631180</v>
+      </c>
+      <c r="AZ12">
+        <v>1201.6311800000001</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13">
+        <v>513.23</v>
+      </c>
+      <c r="H13">
+        <v>513.23</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>2528.6799999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
         <v>70</v>
+      </c>
+      <c r="G14">
+        <v>513.23</v>
+      </c>
+      <c r="H14">
+        <v>513.23</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>2528.6799999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15">
+        <v>513.23</v>
+      </c>
+      <c r="H15">
+        <v>513.23</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>2528.6799999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.631180.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.631180.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B502F3AA-56E9-44F5-8BC6-776ABA187B39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21C2BF89-B228-4D1A-92FD-32B81E3E162B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T061537.798" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T061626.619" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1613,10 +1613,10 @@
         <v>66</v>
       </c>
       <c r="G5">
-        <v>0.93</v>
+        <v>0.37</v>
       </c>
       <c r="H5">
-        <v>0.93</v>
+        <v>0.37</v>
       </c>
       <c r="I5" t="s">
         <v>55</v>
@@ -1652,7 +1652,7 @@
         <v>56</v>
       </c>
       <c r="AA5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB5" t="s">
         <v>56</v>
@@ -1667,7 +1667,7 @@
         <v>56</v>
       </c>
       <c r="AG5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH5" t="s">
         <v>56</v>
@@ -1691,7 +1691,7 @@
         <v>64</v>
       </c>
       <c r="AR5">
-        <v>79248</v>
+        <v>79282</v>
       </c>
       <c r="AU5" t="s">
         <v>56</v>
@@ -1729,10 +1729,10 @@
         <v>66</v>
       </c>
       <c r="G6">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
       <c r="H6">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
       <c r="I6" t="s">
         <v>55</v>
@@ -1768,7 +1768,7 @@
         <v>56</v>
       </c>
       <c r="AA6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="s">
         <v>56</v>
@@ -1783,7 +1783,7 @@
         <v>56</v>
       </c>
       <c r="AG6">
-        <v>4</v>
+        <v>0.97</v>
       </c>
       <c r="AH6" t="s">
         <v>56</v>
@@ -1807,7 +1807,7 @@
         <v>64</v>
       </c>
       <c r="AR6">
-        <v>79282</v>
+        <v>79280</v>
       </c>
       <c r="AU6" t="s">
         <v>56</v>
@@ -1845,10 +1845,10 @@
         <v>66</v>
       </c>
       <c r="G7">
-        <v>0.53</v>
+        <v>0.93</v>
       </c>
       <c r="H7">
-        <v>0.53</v>
+        <v>0.93</v>
       </c>
       <c r="I7" t="s">
         <v>55</v>
@@ -1884,22 +1884,22 @@
         <v>56</v>
       </c>
       <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7">
         <v>6</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG7">
-        <v>0.97</v>
       </c>
       <c r="AH7" t="s">
         <v>56</v>
@@ -1923,7 +1923,7 @@
         <v>64</v>
       </c>
       <c r="AR7">
-        <v>79280</v>
+        <v>79248</v>
       </c>
       <c r="AU7" t="s">
         <v>56</v>
@@ -2193,10 +2193,10 @@
         <v>67</v>
       </c>
       <c r="G10">
-        <v>0.19</v>
+        <v>0.46</v>
       </c>
       <c r="H10">
-        <v>0.19</v>
+        <v>0.46</v>
       </c>
       <c r="I10" t="s">
         <v>55</v>
@@ -2232,7 +2232,7 @@
         <v>56</v>
       </c>
       <c r="AA10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB10" t="s">
         <v>56</v>
@@ -2271,7 +2271,7 @@
         <v>64</v>
       </c>
       <c r="AR10">
-        <v>79248</v>
+        <v>79280</v>
       </c>
       <c r="AU10" t="s">
         <v>56</v>
@@ -2309,10 +2309,10 @@
         <v>67</v>
       </c>
       <c r="G11">
-        <v>0.46</v>
+        <v>0.19</v>
       </c>
       <c r="H11">
-        <v>0.46</v>
+        <v>0.19</v>
       </c>
       <c r="I11" t="s">
         <v>55</v>
@@ -2348,7 +2348,7 @@
         <v>56</v>
       </c>
       <c r="AA11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB11" t="s">
         <v>56</v>
@@ -2387,7 +2387,7 @@
         <v>64</v>
       </c>
       <c r="AR11">
-        <v>79280</v>
+        <v>79248</v>
       </c>
       <c r="AU11" t="s">
         <v>56</v>
